--- a/theo/outputs/MRO/correlations.xlsx
+++ b/theo/outputs/MRO/correlations.xlsx
@@ -532,52 +532,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.81364948506655</v>
+        <v>-0.1459244874866497</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08342261253823323</v>
+        <v>0.0703609583073067</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1065315088207544</v>
+        <v>0.09935308544730691</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6060763121132355</v>
+        <v>0.4071273129268112</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.8378179650071893</v>
+        <v>-0.1851036853864499</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.05463051542818762</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.05411217769146338</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.3524611553711654</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.347709016267843</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.05463051542818762</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.05411217769146338</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.3524611553711654</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.347709016267843</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.05942391687459775</v>
+        <v>-0.04881307721238864</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.0739577429103636</v>
+        <v>-0.09699971597610837</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.08293271414155323</v>
+        <v>-0.04315798451183094</v>
       </c>
     </row>
     <row r="3">
@@ -587,55 +587,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.81364948506655</v>
+        <v>-0.1459244874866497</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.145135095128225</v>
+        <v>-0.1528148576413015</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2254182062328378</v>
+        <v>-0.05461842022342665</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.8965886917760298</v>
+        <v>-0.2100749789611173</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7944472422950926</v>
+        <v>0.5555545944871074</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05086736036433592</v>
+        <v>0.0644168214871281</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05085626812506253</v>
+        <v>0.06432058580991758</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1543577420451838</v>
+        <v>0.2919590778317225</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1514699655870215</v>
+        <v>0.2893547625894905</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.06391780122695481</v>
+        <v>-0.08941954678428396</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.06387377182102309</v>
+        <v>-0.0894584179743937</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1343745677431482</v>
+        <v>0.2598485673824708</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1314264541075213</v>
+        <v>0.2571727549169203</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1243466933151483</v>
+        <v>-0.1425953999223777</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.144999567334247</v>
+        <v>-0.2724103207605494</v>
       </c>
       <c r="R3" t="n">
-        <v>0.08371090259111397</v>
+        <v>-0.1345957773903766</v>
       </c>
     </row>
     <row r="4">
@@ -645,55 +645,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08342261253823323</v>
+        <v>0.0703609583073067</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.145135095128225</v>
+        <v>-0.1528148576413015</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7311370682056839</v>
+        <v>0.7268266354294215</v>
       </c>
       <c r="F4" t="n">
-        <v>0.120047865316206</v>
+        <v>0.08015953815384046</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.04721912462364202</v>
+        <v>-0.1119899463896418</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0858811889768662</v>
+        <v>0.05403606682512097</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.08542038569447827</v>
+        <v>0.05568202364612026</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1187843366886131</v>
+        <v>-0.008927161863855278</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1157989976916509</v>
+        <v>-0.009777588494469381</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01327111248337664</v>
+        <v>0.1235452706588972</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01184706874126569</v>
+        <v>0.1247604016352062</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1234156758769617</v>
+        <v>0.01780298412617213</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.1202710080448487</v>
+        <v>0.01543610570663411</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3603219624554981</v>
+        <v>0.5184693024965271</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.280223623358801</v>
+        <v>0.2266694524195495</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9484596588276909</v>
+        <v>0.9001285203848829</v>
       </c>
     </row>
     <row r="5">
@@ -703,55 +703,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1065315088207544</v>
+        <v>0.09935308544730691</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2254182062328378</v>
+        <v>-0.05461842022342665</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7311370682056839</v>
+        <v>0.7268266354294215</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2463878643571651</v>
+        <v>0.2341195161949809</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1755623470748917</v>
+        <v>-0.1842634238205846</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.07610673696868818</v>
+        <v>0.1309889290636452</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.07542991841155572</v>
+        <v>0.1327034987306363</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04052226721051069</v>
+        <v>0.1611038958149824</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.04106046215530793</v>
+        <v>0.1607776091830986</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05329307970608078</v>
+        <v>0.1308275168089111</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05204038429961724</v>
+        <v>0.1334636192132802</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.03818583817582815</v>
+        <v>0.1567114766306666</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.03845184227154824</v>
+        <v>0.1555997675514501</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.3729590622237404</v>
+        <v>-0.2104607296362803</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.276993163075869</v>
+        <v>-0.1111361909734556</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6326065076745643</v>
+        <v>0.538717931533898</v>
       </c>
     </row>
     <row r="6">
@@ -761,55 +761,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6060763121132355</v>
+        <v>0.4071273129268112</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.8965886917760298</v>
+        <v>-0.2100749789611173</v>
       </c>
       <c r="D6" t="n">
-        <v>0.120047865316206</v>
+        <v>0.08015953815384046</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2463878643571651</v>
+        <v>0.2341195161949809</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.7125446195693942</v>
+        <v>-0.7870485417675516</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.03568980690684907</v>
+        <v>0.1189119354803452</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03613796276230393</v>
+        <v>0.1192054212297584</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.1379851151712524</v>
+        <v>0.7097425992692376</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.1409978309312717</v>
+        <v>0.7142868949257084</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05401108028633362</v>
+        <v>0.1491764904163363</v>
       </c>
       <c r="M6" t="n">
-        <v>0.05328539815585655</v>
+        <v>0.1506974741108089</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.1225037330819913</v>
+        <v>0.7146530534006379</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.1253690864555329</v>
+        <v>0.7194875192287292</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.1736236287571326</v>
+        <v>-0.1773832981223658</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1906880017296592</v>
+        <v>-0.2566454683055004</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1283783837686706</v>
+        <v>-0.1656246351311063</v>
       </c>
     </row>
     <row r="7">
@@ -819,55 +819,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.8378179650071893</v>
+        <v>-0.1851036853864499</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7944472422950926</v>
+        <v>0.5555545944871074</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.04721912462364202</v>
+        <v>-0.1119899463896418</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1755623470748917</v>
+        <v>-0.1842634238205846</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.7125446195693942</v>
+        <v>-0.7870485417675516</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.05563146666189778</v>
+        <v>-0.1016412874358226</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.05553489957798313</v>
+        <v>-0.101195822892924</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.4774252138435003</v>
+        <v>-0.6330539426645123</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.4798142812877074</v>
+        <v>-0.6349208738835511</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.08573256441210654</v>
+        <v>-0.1289053486450762</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.08607380922206526</v>
+        <v>-0.1296990350691439</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.4827471233815918</v>
+        <v>-0.6377779952703166</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.4852973875470592</v>
+        <v>-0.6399139863805258</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1758310361924029</v>
+        <v>0.07000562424988349</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2237951246308284</v>
+        <v>0.08324947170713567</v>
       </c>
       <c r="R7" t="n">
-        <v>0.131579400780076</v>
+        <v>0.06747463914160187</v>
       </c>
     </row>
     <row r="8">
@@ -877,55 +877,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.05463051542818762</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05086736036433592</v>
+        <v>0.0644168214871281</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0858811889768662</v>
+        <v>0.05403606682512097</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.07610673696868818</v>
+        <v>0.1309889290636452</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.03568980690684907</v>
+        <v>0.1189119354803452</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.05563146666189778</v>
+        <v>-0.1016412874358226</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9996280152766142</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1766282134958077</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1770984739186964</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01838332978781464</v>
+        <v>-0.07319012167187834</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01877241932169961</v>
+        <v>-0.07402323872161318</v>
       </c>
       <c r="N8" t="n">
-        <v>0.164691426934996</v>
+        <v>0.1656247051849347</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1652840017653004</v>
+        <v>0.1656591402420288</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.03026040668044333</v>
+        <v>-0.07879062965327457</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.05459993377388558</v>
+        <v>-0.1200249058481706</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.07629100620883848</v>
+        <v>-0.03821349919465938</v>
       </c>
     </row>
     <row r="9">
@@ -935,55 +935,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.05411217769146338</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05085626812506253</v>
+        <v>0.06432058580991758</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.08542038569447827</v>
+        <v>0.05568202364612026</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.07542991841155572</v>
+        <v>0.1327034987306363</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.03613796276230393</v>
+        <v>0.1192054212297584</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.05553489957798313</v>
+        <v>-0.101195822892924</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9996280152766142</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1765584306638838</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1770814179682104</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01814662594676403</v>
+        <v>-0.07541266644625627</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01847381633338832</v>
+        <v>-0.07633972296136707</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1648518449429154</v>
+        <v>0.1651613614711522</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1655616818715602</v>
+        <v>0.1652368835422542</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.03004065622586707</v>
+        <v>-0.07890473386231721</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.0536760860182959</v>
+        <v>-0.1207874540170056</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.07503856081897804</v>
+        <v>-0.03624888701174356</v>
       </c>
     </row>
     <row r="10">
@@ -993,55 +993,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.3524611553711654</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1543577420451838</v>
+        <v>0.2919590778317225</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1187843366886131</v>
+        <v>-0.008927161863855278</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04052226721051069</v>
+        <v>0.1611038958149824</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1379851151712524</v>
+        <v>0.7097425992692376</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.4774252138435003</v>
+        <v>-0.6330539426645123</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1766282134958077</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1765584306638838</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9997228677998856</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02839138939445308</v>
+        <v>0.06270483883372248</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02954189352736597</v>
+        <v>0.06334770381371746</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9775092980901551</v>
+        <v>0.9793944563859827</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9774704811912206</v>
+        <v>0.97930897444854</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.1061422340971321</v>
+        <v>-0.2132820003039189</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.1542906496720679</v>
+        <v>-0.3493737199667769</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.09294398682574505</v>
+        <v>-0.2029230250170183</v>
       </c>
     </row>
     <row r="11">
@@ -1051,55 +1051,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.347709016267843</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1514699655870215</v>
+        <v>0.2893547625894905</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1157989976916509</v>
+        <v>-0.009777588494469381</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04106046215530793</v>
+        <v>0.1607776091830986</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1409978309312717</v>
+        <v>0.7142868949257084</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.4798142812877074</v>
+        <v>-0.6349208738835511</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1770984739186964</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1770814179682104</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9997228677998856</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02631119308004725</v>
+        <v>0.06296465292824902</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02742452766327155</v>
+        <v>0.06357867633545618</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9770124487762495</v>
+        <v>0.979285696944674</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9775264424518051</v>
+        <v>0.9797350254544083</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.1013462259039337</v>
+        <v>-0.2140862456514122</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.1489074877222462</v>
+        <v>-0.349110358379447</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.08888643499411758</v>
+        <v>-0.2032445469605162</v>
       </c>
     </row>
     <row r="12">
@@ -1109,55 +1109,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.05463051542818762</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.06391780122695481</v>
+        <v>-0.08941954678428396</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01327111248337664</v>
+        <v>0.1235452706588972</v>
       </c>
       <c r="E12" t="n">
-        <v>0.05329307970608078</v>
+        <v>0.1308275168089111</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05401108028633362</v>
+        <v>0.1491764904163363</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.08573256441210654</v>
+        <v>-0.1289053486450762</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01838332978781464</v>
+        <v>-0.07319012167187834</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01814662594676403</v>
+        <v>-0.07541266644625627</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02839138939445308</v>
+        <v>0.06270483883372248</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02631119308004725</v>
+        <v>0.06296465292824902</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9996280152766142</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1766282134958077</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1770984739186964</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.04774522972927903</v>
+        <v>0.03673944738569108</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.02380560039217438</v>
+        <v>-0.03872877957673339</v>
       </c>
       <c r="R12" t="n">
-        <v>0.01423941505429584</v>
+        <v>-0.01280055472029679</v>
       </c>
     </row>
     <row r="13">
@@ -1167,55 +1167,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.05411217769146338</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.06387377182102309</v>
+        <v>-0.0894584179743937</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01184706874126569</v>
+        <v>0.1247604016352062</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05204038429961724</v>
+        <v>0.1334636192132802</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05328539815585655</v>
+        <v>0.1506974741108089</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.08607380922206526</v>
+        <v>-0.1296990350691439</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01877241932169961</v>
+        <v>-0.07402323872161318</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01847381633338832</v>
+        <v>-0.07633972296136707</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02954189352736597</v>
+        <v>0.06334770381371746</v>
       </c>
       <c r="K13" t="n">
-        <v>0.02742452766327155</v>
+        <v>0.06357867633545618</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9996280152766142</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1765584306638838</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1770814179682104</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.04832629936156562</v>
+        <v>0.03210792785394835</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.02574432881879462</v>
+        <v>-0.03904456879547337</v>
       </c>
       <c r="R13" t="n">
-        <v>0.01245764775529891</v>
+        <v>-0.01473332043857124</v>
       </c>
     </row>
     <row r="14">
@@ -1225,55 +1225,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.3524611553711654</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1343745677431482</v>
+        <v>0.2598485673824708</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1234156758769617</v>
+        <v>0.01780298412617213</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.03818583817582815</v>
+        <v>0.1567114766306666</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1225037330819913</v>
+        <v>0.7146530534006379</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.4827471233815918</v>
+        <v>-0.6377779952703166</v>
       </c>
       <c r="H14" t="n">
-        <v>0.164691426934996</v>
+        <v>0.1656247051849347</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1648518449429154</v>
+        <v>0.1651613614711522</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9775092980901551</v>
+        <v>0.9793944563859827</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9770124487762495</v>
+        <v>0.979285696944674</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1766282134958077</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1765584306638838</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9997228677998856</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.1141471232544586</v>
+        <v>-0.2047278032367597</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.1587185034411729</v>
+        <v>-0.3509310343660055</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.09725628004518826</v>
+        <v>-0.1783102068248161</v>
       </c>
     </row>
     <row r="15">
@@ -1283,55 +1283,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.347709016267843</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1314264541075213</v>
+        <v>0.2571727549169203</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1202710080448487</v>
+        <v>0.01543610570663411</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.03845184227154824</v>
+        <v>0.1555997675514501</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1253690864555329</v>
+        <v>0.7194875192287292</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.4852973875470592</v>
+        <v>-0.6399139863805258</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1652840017653004</v>
+        <v>0.1656591402420288</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1655616818715602</v>
+        <v>0.1652368835422542</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9774704811912206</v>
+        <v>0.97930897444854</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9775264424518051</v>
+        <v>0.9797350254544083</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1770984739186964</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1770814179682104</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9997228677998856</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.1095766330943634</v>
+        <v>-0.2067259078854173</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.1535864176937986</v>
+        <v>-0.3506592930425096</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.0931030164476196</v>
+        <v>-0.180657852630782</v>
       </c>
     </row>
     <row r="16">
@@ -1341,55 +1341,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.05942391687459775</v>
+        <v>-0.04881307721238864</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1243466933151483</v>
+        <v>-0.1425953999223777</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3603219624554981</v>
+        <v>0.5184693024965271</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3729590622237404</v>
+        <v>-0.2104607296362803</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1736236287571326</v>
+        <v>-0.1773832981223658</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1758310361924029</v>
+        <v>0.07000562424988349</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.03026040668044333</v>
+        <v>-0.07879062965327457</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.03004065622586707</v>
+        <v>-0.07890473386231721</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.1061422340971321</v>
+        <v>-0.2132820003039189</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.1013462259039337</v>
+        <v>-0.2140862456514122</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.04774522972927903</v>
+        <v>0.03673944738569108</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.04832629936156562</v>
+        <v>0.03210792785394835</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.1141471232544586</v>
+        <v>-0.2047278032367597</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.1095766330943634</v>
+        <v>-0.2067259078854173</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.7598484348079635</v>
+        <v>0.461000369556878</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4249488996045038</v>
+        <v>0.6105114200800562</v>
       </c>
     </row>
     <row r="17">
@@ -1399,55 +1399,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.0739577429103636</v>
+        <v>-0.09699971597610837</v>
       </c>
       <c r="C17" t="n">
-        <v>0.144999567334247</v>
+        <v>-0.2724103207605494</v>
       </c>
       <c r="D17" t="n">
-        <v>0.280223623358801</v>
+        <v>0.2266694524195495</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.276993163075869</v>
+        <v>-0.1111361909734556</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1906880017296592</v>
+        <v>-0.2566454683055004</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2237951246308284</v>
+        <v>0.08324947170713567</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.05459993377388558</v>
+        <v>-0.1200249058481706</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.0536760860182959</v>
+        <v>-0.1207874540170056</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.1542906496720679</v>
+        <v>-0.3493737199667769</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.1489074877222462</v>
+        <v>-0.349110358379447</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.02380560039217438</v>
+        <v>-0.03872877957673339</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.02574432881879462</v>
+        <v>-0.03904456879547337</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.1587185034411729</v>
+        <v>-0.3509310343660055</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.1535864176937986</v>
+        <v>-0.3506592930425096</v>
       </c>
       <c r="P17" t="n">
-        <v>0.7598484348079635</v>
+        <v>0.461000369556878</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3393374054043992</v>
+        <v>0.4129566636593855</v>
       </c>
     </row>
     <row r="18">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.08293271414155323</v>
+        <v>-0.04315798451183094</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08371090259111397</v>
+        <v>-0.1345957773903766</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9484596588276909</v>
+        <v>0.9001285203848829</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6326065076745643</v>
+        <v>0.538717931533898</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1283783837686706</v>
+        <v>-0.1656246351311063</v>
       </c>
       <c r="G18" t="n">
-        <v>0.131579400780076</v>
+        <v>0.06747463914160187</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.07629100620883848</v>
+        <v>-0.03821349919465938</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.07503856081897804</v>
+        <v>-0.03624888701174356</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.09294398682574505</v>
+        <v>-0.2029230250170183</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.08888643499411758</v>
+        <v>-0.2032445469605162</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01423941505429584</v>
+        <v>-0.01280055472029679</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01245764775529891</v>
+        <v>-0.01473332043857124</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.09725628004518826</v>
+        <v>-0.1783102068248161</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.0931030164476196</v>
+        <v>-0.180657852630782</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4249488996045038</v>
+        <v>0.6105114200800562</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3393374054043992</v>
+        <v>0.4129566636593855</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -1624,52 +1624,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1863684743311797</v>
+        <v>-0.7674462317442516</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5059116106770681</v>
+        <v>-0.0437774950171707</v>
       </c>
       <c r="E2" t="n">
-        <v>0.510910672846745</v>
+        <v>-0.0402848680205378</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9125292365146231</v>
+        <v>-0.2183692568588848</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1169963410590373</v>
+        <v>-0.7575477361474248</v>
       </c>
       <c r="H2" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.01625837107465684</v>
       </c>
       <c r="I2" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.01615121562456893</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.09882829995371804</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.1006129834693145</v>
       </c>
       <c r="L2" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.01625837107465684</v>
       </c>
       <c r="M2" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.01615121562456893</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.09882829995371804</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.1006129834693145</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.01675235880231756</v>
+        <v>-0.009052522083485838</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.09068383327879143</v>
+        <v>-0.005289923123280192</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.1105540313008141</v>
+        <v>0.01077429921715178</v>
       </c>
     </row>
     <row r="3">
@@ -1679,55 +1679,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1863684743311797</v>
+        <v>-0.7674462317442516</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.07534010694356828</v>
+        <v>-0.004505198455335611</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.068031314596023</v>
+        <v>0.02899736005451805</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1162448276679024</v>
+        <v>0.05007656919697143</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8251503123414906</v>
+        <v>0.9047518173743294</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05745417635233986</v>
+        <v>0.0324620431932986</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05751797274156304</v>
+        <v>0.03290195355559862</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3165778952073075</v>
+        <v>0.1327216029315969</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3116488099819858</v>
+        <v>0.1291367871996987</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.05746864338659129</v>
+        <v>-0.04869510600821268</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.05734422810605635</v>
+        <v>-0.04815145778077418</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2971891830814635</v>
+        <v>0.117469178527175</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2922350565058527</v>
+        <v>0.1139711871646042</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.002093105334223094</v>
+        <v>-0.03760357734722621</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.01404586819640572</v>
+        <v>-0.07789794803260965</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.02135046076436313</v>
+        <v>-0.03836429230603865</v>
       </c>
     </row>
     <row r="4">
@@ -1737,55 +1737,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5059116106770681</v>
+        <v>-0.0437774950171707</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.07534010694356828</v>
+        <v>-0.004505198455335611</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7252365899043799</v>
+        <v>0.6578448508723674</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5221950356311871</v>
+        <v>0.03498213381456017</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.003088083308112179</v>
+        <v>0.002112218776511786</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.01481616675515068</v>
+        <v>0.0475774910249958</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01347445623176441</v>
+        <v>0.04600841362022142</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1141863988115377</v>
+        <v>-0.01046384869819732</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1110284537229708</v>
+        <v>-0.01102782657023335</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.008499475188913396</v>
+        <v>0.1226911631995569</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.008856118381615683</v>
+        <v>0.1263194538922041</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1171884511774632</v>
+        <v>0.03254898786509281</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.113877634034877</v>
+        <v>0.03041266679568972</v>
       </c>
       <c r="P4" t="n">
-        <v>0.381730299763587</v>
+        <v>0.4403426443705188</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2374686446262153</v>
+        <v>0.2438021396379975</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5977186620995151</v>
+        <v>0.9387503768722386</v>
       </c>
     </row>
     <row r="5">
@@ -1795,55 +1795,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.510910672846745</v>
+        <v>-0.0402848680205378</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.068031314596023</v>
+        <v>0.02899736005451805</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7252365899043799</v>
+        <v>0.6578448508723674</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5727257400712382</v>
+        <v>0.1878204546349571</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.04329106323041166</v>
+        <v>-0.01619124803854977</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0260551836417947</v>
+        <v>0.1824142308495158</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.02603182249595326</v>
+        <v>0.1806592033769025</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04310050022836153</v>
+        <v>0.1025747202372213</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.04146675768920986</v>
+        <v>0.1022438825910918</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006301670928776885</v>
+        <v>0.07818134005506665</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005858916382482694</v>
+        <v>0.08039406361807283</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.04289473635930479</v>
+        <v>0.1160675465354851</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.04105360920728408</v>
+        <v>0.113790798764734</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.3595174584290827</v>
+        <v>-0.3865264922188559</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.2085933603775491</v>
+        <v>-0.1365875234695489</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2729643625181233</v>
+        <v>0.5335030642705578</v>
       </c>
     </row>
     <row r="6">
@@ -1853,55 +1853,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9125292365146231</v>
+        <v>-0.2183692568588848</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1162448276679024</v>
+        <v>0.05007656919697143</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5221950356311871</v>
+        <v>0.03498213381456017</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5727257400712382</v>
+        <v>0.1878204546349571</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.07515990729908592</v>
+        <v>-0.08620598895907811</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.001222097019639046</v>
+        <v>0.04682489821435394</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.001500437997579193</v>
+        <v>0.0492291722572846</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.071658661735564</v>
+        <v>0.3126744918376218</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.06835596837026831</v>
+        <v>0.3214144368548598</v>
       </c>
       <c r="L6" t="n">
-        <v>5.893761662137863e-05</v>
+        <v>0.05184234565938179</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.0004431091117650667</v>
+        <v>0.05479346223390298</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.0714630892871788</v>
+        <v>0.313815018103428</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.06818898008088864</v>
+        <v>0.3226305794991443</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.06625647771272436</v>
+        <v>-0.1810620860955607</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1241394100352008</v>
+        <v>-0.2372394519237114</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1269503986185143</v>
+        <v>-0.148778160009814</v>
       </c>
     </row>
     <row r="7">
@@ -1911,55 +1911,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1169963410590373</v>
+        <v>-0.7575477361474248</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8251503123414906</v>
+        <v>0.9047518173743294</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.003088083308112179</v>
+        <v>0.002112218776511786</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.04329106323041166</v>
+        <v>-0.01619124803854977</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.07515990729908592</v>
+        <v>-0.08620598895907811</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.04137289881328313</v>
+        <v>-0.05183365335151169</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04140267268723049</v>
+        <v>-0.05140972219490978</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.2746334294809232</v>
+        <v>-0.3020908944642075</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.2793758555011018</v>
+        <v>-0.3051691859581093</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.06000405957403208</v>
+        <v>-0.06291952068536702</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.05982699731207831</v>
+        <v>-0.06215560496930582</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.2783301762509222</v>
+        <v>-0.3041784916383067</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.2830609441876975</v>
+        <v>-0.3071851457705212</v>
       </c>
       <c r="P7" t="n">
-        <v>0.05426317417733123</v>
+        <v>0.02188802044728589</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0231474037103305</v>
+        <v>0.02549650760871434</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01950943368362832</v>
+        <v>0.005575200901426268</v>
       </c>
     </row>
     <row r="8">
@@ -1969,55 +1969,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.01625837107465684</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05745417635233986</v>
+        <v>0.0324620431932986</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.01481616675515068</v>
+        <v>0.0475774910249958</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.0260551836417947</v>
+        <v>0.1824142308495158</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.001222097019639046</v>
+        <v>0.04682489821435394</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.04137289881328313</v>
+        <v>-0.05183365335151169</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9987178517562473</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1793268052726502</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1783508228277687</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.05712301967457724</v>
+        <v>-0.07210512737067447</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.05575559682641544</v>
+        <v>-0.06944162309711764</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1583508498118242</v>
+        <v>0.1663532593812036</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1586691146152148</v>
+        <v>0.1655791882770881</v>
       </c>
       <c r="P8" t="n">
-        <v>0.009634208144115372</v>
+        <v>-0.1599929110023594</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.04275726286789743</v>
+        <v>-0.09369397722629502</v>
       </c>
       <c r="R8" t="n">
-        <v>0.02036847947948598</v>
+        <v>-0.009674993814436301</v>
       </c>
     </row>
     <row r="9">
@@ -2027,55 +2027,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.01615121562456893</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05751797274156304</v>
+        <v>0.03290195355559862</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.01347445623176441</v>
+        <v>0.04600841362022142</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.02603182249595326</v>
+        <v>0.1806592033769025</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.001500437997579193</v>
+        <v>0.0492291722572846</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04140267268723049</v>
+        <v>-0.05140972219490978</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9987178517562473</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1804545073456696</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1797970837651828</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.05612797095174527</v>
+        <v>-0.07085656788185943</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.05479620814956767</v>
+        <v>-0.0685222820867168</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1587056743767625</v>
+        <v>0.1676613925036159</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1591522229518865</v>
+        <v>0.1671555406548014</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01145849573103268</v>
+        <v>-0.1598089868702741</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.04590743840772638</v>
+        <v>-0.09634169274285898</v>
       </c>
       <c r="R9" t="n">
-        <v>0.02337317420084243</v>
+        <v>-0.01253383636980784</v>
       </c>
     </row>
     <row r="10">
@@ -2085,55 +2085,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.09882829995371804</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3165778952073075</v>
+        <v>0.1327216029315969</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1141863988115377</v>
+        <v>-0.01046384869819732</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04310050022836153</v>
+        <v>0.1025747202372213</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.071658661735564</v>
+        <v>0.3126744918376218</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2746334294809232</v>
+        <v>-0.3020908944642075</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1793268052726502</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1804545073456696</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9991400859234693</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004286069850222709</v>
+        <v>-0.006952587361049251</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004184491722236913</v>
+        <v>-0.004407340979974608</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9733400454702574</v>
+        <v>0.9669516926195647</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9728538264299138</v>
+        <v>0.9664427204520902</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0947225892048157</v>
+        <v>-0.1350922824124889</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.06280013052412227</v>
+        <v>-0.2336705601770701</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.06910000933070952</v>
+        <v>-0.09883514895823951</v>
       </c>
     </row>
     <row r="11">
@@ -2143,55 +2143,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.1006129834693145</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3116488099819858</v>
+        <v>0.1291367871996987</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1110284537229708</v>
+        <v>-0.01102782657023335</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04146675768920986</v>
+        <v>0.1022438825910918</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.06835596837026831</v>
+        <v>0.3214144368548598</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2793758555011018</v>
+        <v>-0.3051691859581093</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1783508228277687</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1797970837651828</v>
       </c>
       <c r="J11" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9991400859234693</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003410368111363741</v>
+        <v>-0.004169774180108385</v>
       </c>
       <c r="M11" t="n">
-        <v>0.003251022319510548</v>
+        <v>-0.00170610130120028</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9728037310005035</v>
+        <v>0.9667152525151256</v>
       </c>
       <c r="O11" t="n">
-        <v>0.973138845170242</v>
+        <v>0.9678552521140348</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.09271364702631031</v>
+        <v>-0.1353885150731183</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.0600480265151005</v>
+        <v>-0.2368944512665583</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.06864538427487206</v>
+        <v>-0.1016290152937628</v>
       </c>
     </row>
     <row r="12">
@@ -2201,55 +2201,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.01625837107465684</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.05746864338659129</v>
+        <v>-0.04869510600821268</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.008499475188913396</v>
+        <v>0.1226911631995569</v>
       </c>
       <c r="E12" t="n">
-        <v>0.006301670928776885</v>
+        <v>0.07818134005506665</v>
       </c>
       <c r="F12" t="n">
-        <v>5.893761662137863e-05</v>
+        <v>0.05184234565938179</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.06000405957403208</v>
+        <v>-0.06291952068536702</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.05712301967457724</v>
+        <v>-0.07210512737067447</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.05612797095174527</v>
+        <v>-0.07085656788185943</v>
       </c>
       <c r="J12" t="n">
-        <v>0.004286069850222709</v>
+        <v>-0.006952587361049251</v>
       </c>
       <c r="K12" t="n">
-        <v>0.003410368111363741</v>
+        <v>-0.004169774180108385</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9987178517562473</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1793268052726502</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1783508228277687</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.02458622991807977</v>
+        <v>0.05004383196179259</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.001574791682833234</v>
+        <v>-0.0002540056243093503</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.007005557741621795</v>
+        <v>0.06322230605487676</v>
       </c>
     </row>
     <row r="13">
@@ -2259,55 +2259,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.01615121562456893</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.05734422810605635</v>
+        <v>-0.04815145778077418</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.008856118381615683</v>
+        <v>0.1263194538922041</v>
       </c>
       <c r="E13" t="n">
-        <v>0.005858916382482694</v>
+        <v>0.08039406361807283</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0004431091117650667</v>
+        <v>0.05479346223390298</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.05982699731207831</v>
+        <v>-0.06215560496930582</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.05575559682641544</v>
+        <v>-0.06944162309711764</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.05479620814956767</v>
+        <v>-0.0685222820867168</v>
       </c>
       <c r="J13" t="n">
-        <v>0.004184491722236913</v>
+        <v>-0.004407340979974608</v>
       </c>
       <c r="K13" t="n">
-        <v>0.003251022319510548</v>
+        <v>-0.00170610130120028</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9987178517562473</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1804545073456696</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1797970837651828</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.02449770104646163</v>
+        <v>0.05219398831473041</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.001475047549576377</v>
+        <v>-3.455098400022599e-06</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.006349395072829069</v>
+        <v>0.06421666968577998</v>
       </c>
     </row>
     <row r="14">
@@ -2317,55 +2317,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.09882829995371804</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2971891830814635</v>
+        <v>0.117469178527175</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1171884511774632</v>
+        <v>0.03254898786509281</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.04289473635930479</v>
+        <v>0.1160675465354851</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0714630892871788</v>
+        <v>0.313815018103428</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2783301762509222</v>
+        <v>-0.3041784916383067</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1583508498118242</v>
+        <v>0.1663532593812036</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1587056743767625</v>
+        <v>0.1676613925036159</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9733400454702574</v>
+        <v>0.9669516926195647</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9728037310005035</v>
+        <v>0.9667152525151256</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1793268052726502</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1804545073456696</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9991400859234693</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.09929807634257969</v>
+        <v>-0.1073482050518635</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.06202249182197739</v>
+        <v>-0.2303044872577695</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.07167927480566143</v>
+        <v>-0.05656260843295282</v>
       </c>
     </row>
     <row r="15">
@@ -2375,55 +2375,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.1006129834693145</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2922350565058527</v>
+        <v>0.1139711871646042</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.113877634034877</v>
+        <v>0.03041266679568972</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.04105360920728408</v>
+        <v>0.113790798764734</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.06818898008088864</v>
+        <v>0.3226305794991443</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2830609441876975</v>
+        <v>-0.3071851457705212</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1586691146152148</v>
+        <v>0.1655791882770881</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1591522229518865</v>
+        <v>0.1671555406548014</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9728538264299138</v>
+        <v>0.9664427204520902</v>
       </c>
       <c r="K15" t="n">
-        <v>0.973138845170242</v>
+        <v>0.9678552521140348</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1783508228277687</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1797970837651828</v>
       </c>
       <c r="N15" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9991400859234693</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.09736386594397382</v>
+        <v>-0.1068538686271442</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.05937294999940751</v>
+        <v>-0.2332911281372799</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.07089367457370295</v>
+        <v>-0.06060850195116884</v>
       </c>
     </row>
     <row r="16">
@@ -2433,55 +2433,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01675235880231756</v>
+        <v>-0.009052522083485838</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.002093105334223094</v>
+        <v>-0.03760357734722621</v>
       </c>
       <c r="D16" t="n">
-        <v>0.381730299763587</v>
+        <v>0.4403426443705188</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3595174584290827</v>
+        <v>-0.3865264922188559</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.06625647771272436</v>
+        <v>-0.1810620860955607</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05426317417733123</v>
+        <v>0.02188802044728589</v>
       </c>
       <c r="H16" t="n">
-        <v>0.009634208144115372</v>
+        <v>-0.1599929110023594</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01145849573103268</v>
+        <v>-0.1598089868702741</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0947225892048157</v>
+        <v>-0.1350922824124889</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.09271364702631031</v>
+        <v>-0.1353885150731183</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.02458622991807977</v>
+        <v>0.05004383196179259</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.02449770104646163</v>
+        <v>0.05219398831473041</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.09929807634257969</v>
+        <v>-0.1073482050518635</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.09736386594397382</v>
+        <v>-0.1068538686271442</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.6018716459332414</v>
+        <v>0.4613744558853448</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4760369273737171</v>
+        <v>0.5135661841826806</v>
       </c>
     </row>
     <row r="17">
@@ -2491,55 +2491,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.09068383327879143</v>
+        <v>-0.005289923123280192</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.01404586819640572</v>
+        <v>-0.07789794803260965</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2374686446262153</v>
+        <v>0.2438021396379975</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.2085933603775491</v>
+        <v>-0.1365875234695489</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1241394100352008</v>
+        <v>-0.2372394519237114</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0231474037103305</v>
+        <v>0.02549650760871434</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04275726286789743</v>
+        <v>-0.09369397722629502</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04590743840772638</v>
+        <v>-0.09634169274285898</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.06280013052412227</v>
+        <v>-0.2336705601770701</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0600480265151005</v>
+        <v>-0.2368944512665583</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.001574791682833234</v>
+        <v>-0.0002540056243093503</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.001475047549576377</v>
+        <v>-3.455098400022599e-06</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.06202249182197739</v>
+        <v>-0.2303044872577695</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.05937294999940751</v>
+        <v>-0.2332911281372799</v>
       </c>
       <c r="P17" t="n">
-        <v>0.6018716459332414</v>
+        <v>0.4613744558853448</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.5442187077348978</v>
+        <v>0.3655946058735141</v>
       </c>
     </row>
     <row r="18">
@@ -2549,52 +2549,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1105540313008141</v>
+        <v>0.01077429921715178</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.02135046076436313</v>
+        <v>-0.03836429230603865</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5977186620995151</v>
+        <v>0.9387503768722386</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2729643625181233</v>
+        <v>0.5335030642705578</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1269503986185143</v>
+        <v>-0.148778160009814</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01950943368362832</v>
+        <v>0.005575200901426268</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02036847947948598</v>
+        <v>-0.009674993814436301</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02337317420084243</v>
+        <v>-0.01253383636980784</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.06910000933070952</v>
+        <v>-0.09883514895823951</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.06864538427487206</v>
+        <v>-0.1016290152937628</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.007005557741621795</v>
+        <v>0.06322230605487676</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.006349395072829069</v>
+        <v>0.06421666968577998</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.07167927480566143</v>
+        <v>-0.05656260843295282</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.07089367457370295</v>
+        <v>-0.06060850195116884</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4760369273737171</v>
+        <v>0.5135661841826806</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.5442187077348978</v>
+        <v>0.3655946058735141</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -2716,52 +2716,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5421497698657863</v>
+        <v>0.2997783302712098</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5670590147464997</v>
+        <v>-0.2263546280687093</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5598373462614268</v>
+        <v>-0.225544163227241</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7692100806451468</v>
+        <v>-0.7306124872060265</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.5241907629105079</v>
+        <v>0.3109784776628081</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00063019971322716</v>
+        <v>-0.01315701852848556</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001782829608940185</v>
+        <v>-0.01339248873105577</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.09695186375630117</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.09632399495628396</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00063019971322716</v>
+        <v>-0.01315701852848556</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0001782829608940185</v>
+        <v>-0.01339248873105577</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.09695186375630117</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.09632399495628396</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03278743538109485</v>
+        <v>0.005896134363001367</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.1205942488249974</v>
+        <v>0.04580451083168899</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.01704576668710548</v>
+        <v>0.01962133253983729</v>
       </c>
     </row>
     <row r="3">
@@ -2771,55 +2771,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.5421497698657863</v>
+        <v>0.2997783302712098</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.4151429783731446</v>
+        <v>-0.1290031598062256</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4018148723993666</v>
+        <v>-0.1091193040950135</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5490318922553734</v>
+        <v>-0.35930170688201</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9098819379908119</v>
+        <v>0.9591668109295812</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03778884491767613</v>
+        <v>0.02321325178325141</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03787345498271118</v>
+        <v>0.02254138352974423</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2301782790609064</v>
+        <v>0.1223164217945258</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2264352361051738</v>
+        <v>0.1131613754896449</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.03882601319489151</v>
+        <v>-0.02914646610039082</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.03864526987692174</v>
+        <v>-0.02952999932739014</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2172948544401279</v>
+        <v>0.1130426147017088</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2135337740845544</v>
+        <v>0.1040262717841856</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.03201328201338007</v>
+        <v>-0.01947093079668496</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0328258624092044</v>
+        <v>-0.02382712507137477</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.0237062193131504</v>
+        <v>-0.01500635695934214</v>
       </c>
     </row>
     <row r="4">
@@ -2829,55 +2829,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5670590147464997</v>
+        <v>-0.2263546280687093</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4151429783731446</v>
+        <v>-0.1290031598062256</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8079688713323099</v>
+        <v>0.7157131026483449</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7056802624381007</v>
+        <v>0.2192119791477213</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.395918552233695</v>
+        <v>-0.1308044807090742</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.008412173814428259</v>
+        <v>0.0221184334751537</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.007932935706425738</v>
+        <v>0.02424954729554156</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.04786130376546804</v>
+        <v>0.02880517800156828</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.04911434213698183</v>
+        <v>0.03008314956240284</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.002653280595499959</v>
+        <v>0.05958847089400245</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.003254533094766197</v>
+        <v>0.06590222542830626</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.04910470280271267</v>
+        <v>0.03221146156759957</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.05034905349114259</v>
+        <v>0.03237619124098123</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3406556471016648</v>
+        <v>0.381603366509757</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.001870529627448011</v>
+        <v>0.2362403903462702</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2793745914621267</v>
+        <v>0.8560217772401664</v>
       </c>
     </row>
     <row r="5">
@@ -2887,55 +2887,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5598373462614268</v>
+        <v>-0.225544163227241</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4018148723993666</v>
+        <v>-0.1091193040950135</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8079688713323099</v>
+        <v>0.7157131026483449</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7289264144823233</v>
+        <v>0.3058655272033158</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4004099527217427</v>
+        <v>-0.1295492046128603</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.008883642745795039</v>
+        <v>0.06267364981553818</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.009553238901079456</v>
+        <v>0.06395712852739455</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.01084543295593506</v>
+        <v>0.07397663630032796</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.01124038349574497</v>
+        <v>0.07465714325978752</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004013866086611113</v>
+        <v>0.04377305649803465</v>
       </c>
       <c r="M5" t="n">
-        <v>0.003784897616836014</v>
+        <v>0.04820966971320709</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.01088924325053562</v>
+        <v>0.06705161630741707</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.01117514480216602</v>
+        <v>0.06551872812960542</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.2787433568514107</v>
+        <v>-0.3724257033589452</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.1080929040278991</v>
+        <v>-0.1706782181762777</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1141084438783591</v>
+        <v>0.5325010003729341</v>
       </c>
     </row>
     <row r="6">
@@ -2945,55 +2945,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692100806451468</v>
+        <v>-0.7306124872060265</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5490318922553734</v>
+        <v>-0.35930170688201</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7056802624381007</v>
+        <v>0.2192119791477213</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7289264144823233</v>
+        <v>0.3058655272033158</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.5476723223833594</v>
+        <v>-0.4256497800173851</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001275065907672057</v>
+        <v>0.03524145993402028</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0009906822905251609</v>
+        <v>0.03700909475194301</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.01350520231868173</v>
+        <v>0.2403495552197117</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.01373981472560285</v>
+        <v>0.2414837436219326</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002559122545756721</v>
+        <v>0.02746867660104252</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002326493781731304</v>
+        <v>0.03024021886279414</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.01329062417733071</v>
+        <v>0.2389671469656029</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.01350674418492096</v>
+        <v>0.2403065127628754</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.01292697243921179</v>
+        <v>-0.1135135106673464</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.09970895457070136</v>
+        <v>-0.1490382605419765</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.04697018934361992</v>
+        <v>-0.09755948304529585</v>
       </c>
     </row>
     <row r="7">
@@ -3003,55 +3003,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5241907629105079</v>
+        <v>0.3109784776628081</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9098819379908119</v>
+        <v>0.9591668109295812</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.395918552233695</v>
+        <v>-0.1308044807090742</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.4004099527217427</v>
+        <v>-0.1295492046128603</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5476723223833594</v>
+        <v>-0.4256497800173851</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.031587539764673</v>
+        <v>-0.02725482107149202</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.03132012402827247</v>
+        <v>-0.0283531344299826</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.194292402100531</v>
+        <v>-0.1633953342504517</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.1975774392545799</v>
+        <v>-0.1705811304909042</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.03299936388869475</v>
+        <v>-0.0291174170483169</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.03280337917313661</v>
+        <v>-0.03003938461050705</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.1946003793451011</v>
+        <v>-0.1637418311001358</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.1979062783622375</v>
+        <v>-0.1708883429791578</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.006391245112363666</v>
+        <v>-0.002361057099126536</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.07152722109181084</v>
+        <v>0.01231077194672011</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02043428162814625</v>
+        <v>0.005205857774968867</v>
       </c>
     </row>
     <row r="8">
@@ -3061,55 +3061,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00063019971322716</v>
+        <v>-0.01315701852848556</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03778884491767613</v>
+        <v>0.02321325178325141</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.008412173814428259</v>
+        <v>0.0221184334751537</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.008883642745795039</v>
+        <v>0.06267364981553818</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001275065907672057</v>
+        <v>0.03524145993402028</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.031587539764673</v>
+        <v>-0.02725482107149202</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9944948048900889</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1761403481673153</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1735292888740882</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.04289805790585169</v>
+        <v>-0.01309412484072976</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.04225797328940766</v>
+        <v>-0.007349512165218296</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1606509652284165</v>
+        <v>0.1719150307335955</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1607715958463615</v>
+        <v>0.170247669407065</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.0002947113615300593</v>
+        <v>-0.05416783725936802</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0003036857201429574</v>
+        <v>-0.02317475468177654</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.0495693010698945</v>
+        <v>-0.04864653502671525</v>
       </c>
     </row>
     <row r="9">
@@ -3119,55 +3119,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0001782829608940185</v>
+        <v>-0.01339248873105577</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03787345498271118</v>
+        <v>0.02254138352974423</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.007932935706425738</v>
+        <v>0.02424954729554156</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.009553238901079456</v>
+        <v>0.06395712852739455</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0009906822905251609</v>
+        <v>0.03700909475194301</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.03132012402827247</v>
+        <v>-0.0283531344299826</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9944948048900889</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1775337432090175</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1770777768289827</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0428953814320998</v>
+        <v>-0.007416896703019669</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.04237614760923573</v>
+        <v>-0.001629154649997276</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1599641109553714</v>
+        <v>0.1741230856736106</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1604536328671998</v>
+        <v>0.1745875615954422</v>
       </c>
       <c r="P9" t="n">
-        <v>0.001618141409125537</v>
+        <v>-0.05308539191267725</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.001939945135960296</v>
+        <v>-0.02452853051490615</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.04515876113928785</v>
+        <v>-0.04451987827792096</v>
       </c>
     </row>
     <row r="10">
@@ -3177,55 +3177,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.09695186375630117</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2301782790609064</v>
+        <v>0.1223164217945258</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.04786130376546804</v>
+        <v>0.02880517800156828</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.01084543295593506</v>
+        <v>0.07397663630032796</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.01350520231868173</v>
+        <v>0.2403495552197117</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.194292402100531</v>
+        <v>-0.1633953342504517</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1761403481673153</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1775337432090175</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9932818457111771</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.009279674106381362</v>
+        <v>0.005492630546783963</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.009707136967591255</v>
+        <v>0.007898569231972076</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9706776205724464</v>
+        <v>0.9701272044977475</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9695100844200296</v>
+        <v>0.9638426428529486</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0607027761467206</v>
+        <v>-0.05963041636612103</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.0906578831279594</v>
+        <v>-0.126308552883881</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.1039851967048387</v>
+        <v>-0.07061016525314678</v>
       </c>
     </row>
     <row r="11">
@@ -3235,55 +3235,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.09632399495628396</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2264352361051738</v>
+        <v>0.1131613754896449</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.04911434213698183</v>
+        <v>0.03008314956240284</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01124038349574497</v>
+        <v>0.07465714325978752</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.01373981472560285</v>
+        <v>0.2414837436219326</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1975774392545799</v>
+        <v>-0.1705811304909042</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1735292888740882</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1770777768289827</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9932818457111771</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.009675569737380988</v>
+        <v>0.0087318636895508</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.01013661336192944</v>
+        <v>0.01144395857214052</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9695907087740681</v>
+        <v>0.9640064277983436</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9706369394626907</v>
+        <v>0.9707542455026914</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.0621148800620477</v>
+        <v>-0.05883283486436425</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.08944613144911655</v>
+        <v>-0.1227588570301761</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.103526613124189</v>
+        <v>-0.06889762329378135</v>
       </c>
     </row>
     <row r="12">
@@ -3293,55 +3293,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00063019971322716</v>
+        <v>-0.01315701852848556</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.03882601319489151</v>
+        <v>-0.02914646610039082</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.002653280595499959</v>
+        <v>0.05958847089400245</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004013866086611113</v>
+        <v>0.04377305649803465</v>
       </c>
       <c r="F12" t="n">
-        <v>0.002559122545756721</v>
+        <v>0.02746867660104252</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03299936388869475</v>
+        <v>-0.0291174170483169</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.04289805790585169</v>
+        <v>-0.01309412484072976</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.0428953814320998</v>
+        <v>-0.007416896703019669</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.009279674106381362</v>
+        <v>0.005492630546783963</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.009675569737380988</v>
+        <v>0.0087318636895508</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9944948048900889</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1761403481673153</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1735292888740882</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.01231767746807113</v>
+        <v>0.01370048124399555</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01502653945814526</v>
+        <v>-0.002189176203652851</v>
       </c>
       <c r="R12" t="n">
-        <v>0.008037545769291303</v>
+        <v>0.01938875407290266</v>
       </c>
     </row>
     <row r="13">
@@ -3351,55 +3351,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0001782829608940185</v>
+        <v>-0.01339248873105577</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.03864526987692174</v>
+        <v>-0.02952999932739014</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.003254533094766197</v>
+        <v>0.06590222542830626</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003784897616836014</v>
+        <v>0.04820966971320709</v>
       </c>
       <c r="F13" t="n">
-        <v>0.002326493781731304</v>
+        <v>0.03024021886279414</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03280337917313661</v>
+        <v>-0.03003938461050705</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.04225797328940766</v>
+        <v>-0.007349512165218296</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.04237614760923573</v>
+        <v>-0.001629154649997276</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.009707136967591255</v>
+        <v>0.007898569231972076</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.01013661336192944</v>
+        <v>0.01144395857214052</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9944948048900889</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1775337432090175</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1770777768289827</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.01282555572957506</v>
+        <v>0.01552747229134551</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01509284879446856</v>
+        <v>-0.001326629369615543</v>
       </c>
       <c r="R13" t="n">
-        <v>0.007909332230194155</v>
+        <v>0.02285287103176727</v>
       </c>
     </row>
     <row r="14">
@@ -3409,55 +3409,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.09695186375630117</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2172948544401279</v>
+        <v>0.1130426147017088</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.04910470280271267</v>
+        <v>0.03221146156759957</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.01088924325053562</v>
+        <v>0.06705161630741707</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.01329062417733071</v>
+        <v>0.2389671469656029</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1946003793451011</v>
+        <v>-0.1637418311001358</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1606509652284165</v>
+        <v>0.1719150307335955</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1599641109553714</v>
+        <v>0.1741230856736106</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9706776205724464</v>
+        <v>0.9701272044977475</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9695907087740681</v>
+        <v>0.9640064277983436</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1761403481673153</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1775337432090175</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9932818457111771</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.06281470259382184</v>
+        <v>-0.04822824054408192</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.08508271108624274</v>
+        <v>-0.1235250396985713</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.1026404825093185</v>
+        <v>-0.06163673577213001</v>
       </c>
     </row>
     <row r="15">
@@ -3467,55 +3467,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.09632399495628396</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2135337740845544</v>
+        <v>0.1040262717841856</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.05034905349114259</v>
+        <v>0.03237619124098123</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.01117514480216602</v>
+        <v>0.06551872812960542</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01350674418492096</v>
+        <v>0.2403065127628754</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.1979062783622375</v>
+        <v>-0.1708883429791578</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1607715958463615</v>
+        <v>0.170247669407065</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1604536328671998</v>
+        <v>0.1745875615954422</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9695100844200296</v>
+        <v>0.9638426428529486</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9706369394626907</v>
+        <v>0.9707542455026914</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1735292888740882</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1770777768289827</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9932818457111771</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.06437996647699736</v>
+        <v>-0.04608046657128281</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.08413472641851127</v>
+        <v>-0.1197069757280737</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.1020413442389173</v>
+        <v>-0.06101243862996496</v>
       </c>
     </row>
     <row r="16">
@@ -3525,55 +3525,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03278743538109485</v>
+        <v>0.005896134363001367</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.03201328201338007</v>
+        <v>-0.01947093079668496</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3406556471016648</v>
+        <v>0.381603366509757</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.2787433568514107</v>
+        <v>-0.3724257033589452</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.01292697243921179</v>
+        <v>-0.1135135106673464</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.006391245112363666</v>
+        <v>-0.002361057099126536</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.0002947113615300593</v>
+        <v>-0.05416783725936802</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001618141409125537</v>
+        <v>-0.05308539191267725</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0607027761467206</v>
+        <v>-0.05963041636612103</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0621148800620477</v>
+        <v>-0.05883283486436425</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.01231767746807113</v>
+        <v>0.01370048124399555</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.01282555572957506</v>
+        <v>0.01552747229134551</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.06281470259382184</v>
+        <v>-0.04822824054408192</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.06437996647699736</v>
+        <v>-0.04608046657128281</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1753447427527878</v>
+        <v>0.5398211513117592</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2732713364047973</v>
+        <v>0.4327593057568785</v>
       </c>
     </row>
     <row r="17">
@@ -3583,55 +3583,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1205942488249974</v>
+        <v>0.04580451083168899</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0328258624092044</v>
+        <v>-0.02382712507137477</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001870529627448011</v>
+        <v>0.2362403903462702</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.1080929040278991</v>
+        <v>-0.1706782181762777</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.09970895457070136</v>
+        <v>-0.1490382605419765</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07152722109181084</v>
+        <v>0.01231077194672011</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0003036857201429574</v>
+        <v>-0.02317475468177654</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001939945135960296</v>
+        <v>-0.02452853051490615</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.0906578831279594</v>
+        <v>-0.126308552883881</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.08944613144911655</v>
+        <v>-0.1227588570301761</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01502653945814526</v>
+        <v>-0.002189176203652851</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01509284879446856</v>
+        <v>-0.001326629369615543</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.08508271108624274</v>
+        <v>-0.1235250396985713</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.08413472641851127</v>
+        <v>-0.1197069757280737</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1753447427527878</v>
+        <v>0.5398211513117592</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3336034341496384</v>
+        <v>0.3503033747814656</v>
       </c>
     </row>
     <row r="18">
@@ -3641,52 +3641,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01704576668710548</v>
+        <v>0.01962133253983729</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0237062193131504</v>
+        <v>-0.01500635695934214</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2793745914621267</v>
+        <v>0.8560217772401664</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1141084438783591</v>
+        <v>0.5325010003729341</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.04697018934361992</v>
+        <v>-0.09755948304529585</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02043428162814625</v>
+        <v>0.005205857774968867</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.0495693010698945</v>
+        <v>-0.04864653502671525</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.04515876113928785</v>
+        <v>-0.04451987827792096</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.1039851967048387</v>
+        <v>-0.07061016525314678</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.103526613124189</v>
+        <v>-0.06889762329378135</v>
       </c>
       <c r="L18" t="n">
-        <v>0.008037545769291303</v>
+        <v>0.01938875407290266</v>
       </c>
       <c r="M18" t="n">
-        <v>0.007909332230194155</v>
+        <v>0.02285287103176727</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.1026404825093185</v>
+        <v>-0.06163673577213001</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.1020413442389173</v>
+        <v>-0.06101243862996496</v>
       </c>
       <c r="P18" t="n">
-        <v>0.2732713364047973</v>
+        <v>0.4327593057568785</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3336034341496384</v>
+        <v>0.3503033747814656</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
